--- a/SValimaki.xlsx
+++ b/SValimaki.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:H3"/>
+  <dimension ref="A2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,62 @@
         <v>0.7177188976041666</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>43423</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.4584691899189815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>43423</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.4818042578125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>43423</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0.4890109440046296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>43423</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.4937088486111111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/SValimaki.xlsx
+++ b/SValimaki.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="SValimaki                                       " sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SValimaki" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
@@ -519,4 +520,37 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>43423</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.5084813385416667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/SValimaki.xlsx
+++ b/SValimaki.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>Inside</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Outside</t>
+  </si>
+  <si>
+    <t>If=(ISBLANK($d${0}),"",$h${0}-$d${0})</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D2"/>
+  <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +539,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -548,6 +551,104 @@
       </c>
       <c r="D2" s="3" t="n">
         <v>0.5084813385416667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>43423</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0.5234013319791666</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>43423</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0.5235350073148148</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>43423</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.5236926732175926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>43423</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0.5255282463194445</v>
+      </c>
+      <c r="J6">
+        <f>IF(ISBLANK($d${0}),"",$h${0}-$d${0})</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>43423</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.5256380366319444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>43423</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0.5257392644791667</v>
+      </c>
+      <c r="J8">
+        <f>IF(ISBLANK($d${0}),"",$h${0}-$d${0})</f>
+        <v/>
       </c>
     </row>
   </sheetData>
